--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_4_2024.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_4_2024.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -432,48 +432,48 @@
         <v>BP</v>
       </c>
       <c r="F2" t="str">
-        <v>Direction régionale</v>
+        <v>Point de vente</v>
       </c>
       <c r="G2" t="str">
-        <v>044/FES VILLE /AV6</v>
+        <v>665/FES 2</v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="J2">
-        <v>4500</v>
+        <v>1500</v>
       </c>
       <c r="K2">
-        <v>25500</v>
+        <v>18500</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>KHADIJA LALA</v>
       </c>
       <c r="B3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>K5443645</v>
       </c>
       <c r="C3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>354564564324158786713544</v>
       </c>
       <c r="D3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>AG 100</v>
       </c>
       <c r="E3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>BP</v>
       </c>
       <c r="F3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>Direction régionale</v>
       </c>
       <c r="G3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>044/FES VILLE /AV6</v>
       </c>
       <c r="H3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>mensuelle</v>
       </c>
       <c r="I3">
         <v>30000</v>
@@ -483,11 +483,46 @@
       </c>
       <c r="K3">
         <v>25500</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I4">
+        <v>50000</v>
+      </c>
+      <c r="J4">
+        <v>6000</v>
+      </c>
+      <c r="K4">
+        <v>44000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K4"/>
   </ignoredErrors>
 </worksheet>
 </file>